--- a/data/Morta_France.xlsx
+++ b/data/Morta_France.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abdel\Desktop\Cours Master\Git_dossier\ADA-Rapport-Dept-13\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A234746-B645-4352-8478-338DA9EFCC85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A657002E-DF02-47CB-97B1-8900AB110070}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AC17E171-E08D-4982-8399-897AC886E054}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{AC17E171-E08D-4982-8399-897AC886E054}"/>
   </bookViews>
   <sheets>
     <sheet name="Hommes" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="3">
   <si>
     <t>Age</t>
   </si>
@@ -46,9 +46,6 @@
   </si>
   <si>
     <t>qx</t>
-  </si>
-  <si>
-    <t>px</t>
   </si>
 </sst>
 </file>
@@ -474,10 +471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B081257E-D02D-4746-9A8F-F989D45386C9}">
-  <dimension ref="A1:D91"/>
+  <dimension ref="A1:C91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -486,7 +483,7 @@
     <col min="3" max="16384" width="11.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -496,11 +493,8 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -510,11 +504,8 @@
       <c r="C2" s="5">
         <v>3.9899999999999996E-3</v>
       </c>
-      <c r="D2" s="5">
-        <v>0.99600999999999995</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -524,11 +515,8 @@
       <c r="C3" s="6">
         <v>3.2000000000000003E-4</v>
       </c>
-      <c r="D3" s="6">
-        <v>0.99968000000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -538,11 +526,8 @@
       <c r="C4" s="5">
         <v>1.7000000000000001E-4</v>
       </c>
-      <c r="D4" s="5">
-        <v>0.99983</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -552,11 +537,8 @@
       <c r="C5" s="6">
         <v>1.4999999999999999E-4</v>
       </c>
-      <c r="D5" s="6">
-        <v>0.99985000000000002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <f>A5+1</f>
         <v>4</v>
@@ -567,11 +549,8 @@
       <c r="C6" s="5">
         <v>1.2999999999999999E-4</v>
       </c>
-      <c r="D6" s="5">
-        <v>0.99987000000000004</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <f t="shared" ref="A7:A70" si="0">A6+1</f>
         <v>5</v>
@@ -582,11 +561,8 @@
       <c r="C7" s="6">
         <v>1E-4</v>
       </c>
-      <c r="D7" s="6">
-        <v>0.99990000000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -597,11 +573,8 @@
       <c r="C8" s="5">
         <v>1.1E-4</v>
       </c>
-      <c r="D8" s="5">
-        <v>0.99988999999999995</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -612,11 +585,8 @@
       <c r="C9" s="6">
         <v>1E-4</v>
       </c>
-      <c r="D9" s="6">
-        <v>0.99990000000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -627,11 +597,8 @@
       <c r="C10" s="5">
         <v>8.0000000000000007E-5</v>
       </c>
-      <c r="D10" s="5">
-        <v>0.99992000000000003</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -642,11 +609,8 @@
       <c r="C11" s="6">
         <v>9.0000000000000006E-5</v>
       </c>
-      <c r="D11" s="6">
-        <v>0.99990999999999997</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -657,11 +621,8 @@
       <c r="C12" s="5">
         <v>6.0000000000000002E-5</v>
       </c>
-      <c r="D12" s="5">
-        <v>0.99994000000000005</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -672,11 +633,8 @@
       <c r="C13" s="6">
         <v>8.0000000000000007E-5</v>
       </c>
-      <c r="D13" s="6">
-        <v>0.99992000000000003</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -687,11 +645,8 @@
       <c r="C14" s="5">
         <v>1.1E-4</v>
       </c>
-      <c r="D14" s="5">
-        <v>0.99988999999999995</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -702,11 +657,8 @@
       <c r="C15" s="6">
         <v>1E-4</v>
       </c>
-      <c r="D15" s="6">
-        <v>0.99990000000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -717,11 +669,8 @@
       <c r="C16" s="5">
         <v>1.3999999999999999E-4</v>
       </c>
-      <c r="D16" s="5">
-        <v>0.99985999999999997</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -732,11 +681,8 @@
       <c r="C17" s="6">
         <v>1.8000000000000001E-4</v>
       </c>
-      <c r="D17" s="6">
-        <v>0.99982000000000004</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -747,11 +693,8 @@
       <c r="C18" s="5">
         <v>2.3000000000000001E-4</v>
       </c>
-      <c r="D18" s="5">
-        <v>0.99977000000000005</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -762,11 +705,8 @@
       <c r="C19" s="6">
         <v>3.2000000000000003E-4</v>
       </c>
-      <c r="D19" s="6">
-        <v>0.99968000000000001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -777,11 +717,8 @@
       <c r="C20" s="5">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="D20" s="5">
-        <v>0.99960000000000004</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -792,11 +729,8 @@
       <c r="C21" s="6">
         <v>5.1000000000000004E-4</v>
       </c>
-      <c r="D21" s="6">
-        <v>0.99948999999999999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -807,11 +741,8 @@
       <c r="C22" s="5">
         <v>5.9000000000000003E-4</v>
       </c>
-      <c r="D22" s="5">
-        <v>0.99941000000000002</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -822,11 +753,8 @@
       <c r="C23" s="6">
         <v>5.2999999999999998E-4</v>
       </c>
-      <c r="D23" s="6">
-        <v>0.99946999999999997</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -837,11 +765,8 @@
       <c r="C24" s="5">
         <v>6.4000000000000005E-4</v>
       </c>
-      <c r="D24" s="5">
-        <v>0.99936000000000003</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -852,11 +777,8 @@
       <c r="C25" s="6">
         <v>6.2E-4</v>
       </c>
-      <c r="D25" s="6">
-        <v>0.99938000000000005</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -867,11 +789,8 @@
       <c r="C26" s="5">
         <v>6.4000000000000005E-4</v>
       </c>
-      <c r="D26" s="5">
-        <v>0.99936000000000003</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -882,11 +801,8 @@
       <c r="C27" s="6">
         <v>7.2999999999999996E-4</v>
       </c>
-      <c r="D27" s="6">
-        <v>0.99926999999999999</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -897,11 +813,8 @@
       <c r="C28" s="5">
         <v>7.1000000000000002E-4</v>
       </c>
-      <c r="D28" s="5">
-        <v>0.99929000000000001</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -912,11 +825,8 @@
       <c r="C29" s="6">
         <v>7.2999999999999996E-4</v>
       </c>
-      <c r="D29" s="6">
-        <v>0.99926999999999999</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -927,11 +837,8 @@
       <c r="C30" s="5">
         <v>7.7999999999999999E-4</v>
       </c>
-      <c r="D30" s="5">
-        <v>0.99922</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -942,11 +849,8 @@
       <c r="C31" s="6">
         <v>8.7000000000000001E-4</v>
       </c>
-      <c r="D31" s="6">
-        <v>0.99912999999999996</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -957,11 +861,8 @@
       <c r="C32" s="5">
         <v>9.1E-4</v>
       </c>
-      <c r="D32" s="5">
-        <v>0.99909000000000003</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -972,11 +873,8 @@
       <c r="C33" s="6">
         <v>7.5000000000000002E-4</v>
       </c>
-      <c r="D33" s="6">
-        <v>0.99924999999999997</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -987,11 +885,8 @@
       <c r="C34" s="5">
         <v>1E-3</v>
       </c>
-      <c r="D34" s="5">
-        <v>0.999</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -1002,11 +897,8 @@
       <c r="C35" s="6">
         <v>8.8000000000000003E-4</v>
       </c>
-      <c r="D35" s="6">
-        <v>0.99912000000000001</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -1017,11 +909,8 @@
       <c r="C36" s="5">
         <v>1.01E-3</v>
       </c>
-      <c r="D36" s="5">
-        <v>0.99899000000000004</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -1032,11 +921,8 @@
       <c r="C37" s="6">
         <v>9.3000000000000005E-4</v>
       </c>
-      <c r="D37" s="6">
-        <v>0.99907000000000001</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -1047,11 +933,8 @@
       <c r="C38" s="5">
         <v>1.0200000000000001E-3</v>
       </c>
-      <c r="D38" s="5">
-        <v>0.99897999999999998</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -1062,11 +945,8 @@
       <c r="C39" s="6">
         <v>1.1900000000000001E-3</v>
       </c>
-      <c r="D39" s="6">
-        <v>0.99880999999999998</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -1077,11 +957,8 @@
       <c r="C40" s="5">
         <v>1.2999999999999999E-3</v>
       </c>
-      <c r="D40" s="5">
-        <v>0.99870000000000003</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -1092,11 +969,8 @@
       <c r="C41" s="6">
         <v>1.5499999999999999E-3</v>
       </c>
-      <c r="D41" s="6">
-        <v>0.99844999999999995</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -1107,11 +981,8 @@
       <c r="C42" s="5">
         <v>1.48E-3</v>
       </c>
-      <c r="D42" s="5">
-        <v>0.99851999999999996</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -1122,11 +993,8 @@
       <c r="C43" s="6">
         <v>1.5100000000000001E-3</v>
       </c>
-      <c r="D43" s="6">
-        <v>0.99848999999999999</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -1137,11 +1005,8 @@
       <c r="C44" s="5">
         <v>1.73E-3</v>
       </c>
-      <c r="D44" s="5">
-        <v>0.99826999999999999</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -1152,11 +1017,8 @@
       <c r="C45" s="6">
         <v>1.9E-3</v>
       </c>
-      <c r="D45" s="6">
-        <v>0.99809999999999999</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -1167,11 +1029,8 @@
       <c r="C46" s="5">
         <v>2.2100000000000002E-3</v>
       </c>
-      <c r="D46" s="5">
-        <v>0.99778999999999995</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -1182,11 +1041,8 @@
       <c r="C47" s="6">
         <v>2.48E-3</v>
       </c>
-      <c r="D47" s="6">
-        <v>0.99751999999999996</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -1197,11 +1053,8 @@
       <c r="C48" s="5">
         <v>2.7799999999999999E-3</v>
       </c>
-      <c r="D48" s="5">
-        <v>0.99722</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -1212,11 +1065,8 @@
       <c r="C49" s="6">
         <v>2.99E-3</v>
       </c>
-      <c r="D49" s="6">
-        <v>0.99700999999999995</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -1227,11 +1077,8 @@
       <c r="C50" s="5">
         <v>3.31E-3</v>
       </c>
-      <c r="D50" s="5">
-        <v>0.99668999999999996</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -1242,11 +1089,8 @@
       <c r="C51" s="6">
         <v>3.64E-3</v>
       </c>
-      <c r="D51" s="6">
-        <v>0.99636000000000002</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -1257,11 +1101,8 @@
       <c r="C52" s="5">
         <v>3.8400000000000001E-3</v>
       </c>
-      <c r="D52" s="5">
-        <v>0.99616000000000005</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -1272,11 +1113,8 @@
       <c r="C53" s="6">
         <v>4.2599999999999999E-3</v>
       </c>
-      <c r="D53" s="6">
-        <v>0.99573999999999996</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -1287,11 +1125,8 @@
       <c r="C54" s="5">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="D54" s="5">
-        <v>0.995</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -1302,11 +1137,8 @@
       <c r="C55" s="6">
         <v>5.2500000000000003E-3</v>
       </c>
-      <c r="D55" s="6">
-        <v>0.99475000000000002</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -1317,11 +1149,8 @@
       <c r="C56" s="5">
         <v>6.0099999999999997E-3</v>
       </c>
-      <c r="D56" s="5">
-        <v>0.99399000000000004</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -1332,11 +1161,8 @@
       <c r="C57" s="6">
         <v>6.5300000000000002E-3</v>
       </c>
-      <c r="D57" s="6">
-        <v>0.99346999999999996</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -1347,11 +1173,8 @@
       <c r="C58" s="5">
         <v>7.2100000000000003E-3</v>
       </c>
-      <c r="D58" s="5">
-        <v>0.99278999999999995</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -1362,11 +1185,8 @@
       <c r="C59" s="6">
         <v>7.7099999999999998E-3</v>
       </c>
-      <c r="D59" s="6">
-        <v>0.99229000000000001</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -1377,11 +1197,8 @@
       <c r="C60" s="5">
         <v>8.3599999999999994E-3</v>
       </c>
-      <c r="D60" s="5">
-        <v>0.99163999999999997</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -1392,11 +1209,8 @@
       <c r="C61" s="6">
         <v>9.0200000000000002E-3</v>
       </c>
-      <c r="D61" s="6">
-        <v>0.99097999999999997</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -1407,11 +1221,8 @@
       <c r="C62" s="5">
         <v>9.7599999999999996E-3</v>
       </c>
-      <c r="D62" s="5">
-        <v>0.99024000000000001</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <f t="shared" si="0"/>
         <v>61</v>
@@ -1422,11 +1233,8 @@
       <c r="C63" s="6">
         <v>1.055E-2</v>
       </c>
-      <c r="D63" s="6">
-        <v>0.98945000000000005</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <f t="shared" si="0"/>
         <v>62</v>
@@ -1437,11 +1245,8 @@
       <c r="C64" s="5">
         <v>1.1429999999999999E-2</v>
       </c>
-      <c r="D64" s="5">
-        <v>0.98856999999999995</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <f t="shared" si="0"/>
         <v>63</v>
@@ -1452,11 +1257,8 @@
       <c r="C65" s="6">
         <v>1.188E-2</v>
       </c>
-      <c r="D65" s="6">
-        <v>0.98812</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <f t="shared" si="0"/>
         <v>64</v>
@@ -1467,11 +1269,8 @@
       <c r="C66" s="5">
         <v>1.264E-2</v>
       </c>
-      <c r="D66" s="5">
-        <v>0.98736000000000002</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <f t="shared" si="0"/>
         <v>65</v>
@@ -1482,11 +1281,8 @@
       <c r="C67" s="6">
         <v>1.311E-2</v>
       </c>
-      <c r="D67" s="6">
-        <v>0.98689000000000004</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <f t="shared" si="0"/>
         <v>66</v>
@@ -1497,11 +1293,8 @@
       <c r="C68" s="5">
         <v>1.4080000000000001E-2</v>
       </c>
-      <c r="D68" s="5">
-        <v>0.98592000000000002</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <f t="shared" si="0"/>
         <v>67</v>
@@ -1512,11 +1305,8 @@
       <c r="C69" s="6">
         <v>1.495E-2</v>
       </c>
-      <c r="D69" s="6">
-        <v>0.98504999999999998</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <f t="shared" si="0"/>
         <v>68</v>
@@ -1527,11 +1317,8 @@
       <c r="C70" s="5">
         <v>1.627E-2</v>
       </c>
-      <c r="D70" s="5">
-        <v>0.98372999999999999</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <f t="shared" ref="A71:A87" si="1">A70+1</f>
         <v>69</v>
@@ -1542,11 +1329,8 @@
       <c r="C71" s="6">
         <v>1.7659999999999999E-2</v>
       </c>
-      <c r="D71" s="6">
-        <v>0.98233999999999999</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <f t="shared" si="1"/>
         <v>70</v>
@@ -1557,11 +1341,8 @@
       <c r="C72" s="5">
         <v>1.882E-2</v>
       </c>
-      <c r="D72" s="5">
-        <v>0.98118000000000005</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <f t="shared" si="1"/>
         <v>71</v>
@@ -1572,11 +1353,8 @@
       <c r="C73" s="6">
         <v>1.9709999999999998E-2</v>
       </c>
-      <c r="D73" s="6">
-        <v>0.98028999999999999</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <f t="shared" si="1"/>
         <v>72</v>
@@ -1587,11 +1365,8 @@
       <c r="C74" s="5">
         <v>2.1839999999999998E-2</v>
       </c>
-      <c r="D74" s="5">
-        <v>0.97816000000000003</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <f t="shared" si="1"/>
         <v>73</v>
@@ -1602,11 +1377,8 @@
       <c r="C75" s="6">
         <v>2.247E-2</v>
       </c>
-      <c r="D75" s="6">
-        <v>0.97753000000000001</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <f t="shared" si="1"/>
         <v>74</v>
@@ -1617,11 +1389,8 @@
       <c r="C76" s="5">
         <v>2.5669999999999998E-2</v>
       </c>
-      <c r="D76" s="5">
-        <v>0.97433000000000003</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <f t="shared" si="1"/>
         <v>75</v>
@@ -1632,11 +1401,8 @@
       <c r="C77" s="6">
         <v>2.793E-2</v>
       </c>
-      <c r="D77" s="6">
-        <v>0.97206999999999999</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <f t="shared" si="1"/>
         <v>76</v>
@@ -1647,11 +1413,8 @@
       <c r="C78" s="5">
         <v>2.9870000000000001E-2</v>
       </c>
-      <c r="D78" s="5">
-        <v>0.97013000000000005</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <f t="shared" si="1"/>
         <v>77</v>
@@ -1662,11 +1425,8 @@
       <c r="C79" s="6">
         <v>3.363E-2</v>
       </c>
-      <c r="D79" s="6">
-        <v>0.96636999999999995</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <f t="shared" si="1"/>
         <v>78</v>
@@ -1677,11 +1437,8 @@
       <c r="C80" s="5">
         <v>3.6859999999999997E-2</v>
       </c>
-      <c r="D80" s="5">
-        <v>0.96314</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <f t="shared" si="1"/>
         <v>79</v>
@@ -1692,11 +1449,8 @@
       <c r="C81" s="6">
         <v>4.1579999999999999E-2</v>
       </c>
-      <c r="D81" s="6">
-        <v>0.95842000000000005</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <f t="shared" si="1"/>
         <v>80</v>
@@ -1707,11 +1461,8 @@
       <c r="C82" s="5">
         <v>4.6850000000000003E-2</v>
       </c>
-      <c r="D82" s="5">
-        <v>0.95315000000000005</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <f t="shared" si="1"/>
         <v>81</v>
@@ -1722,11 +1473,8 @@
       <c r="C83" s="6">
         <v>5.2819999999999999E-2</v>
       </c>
-      <c r="D83" s="6">
-        <v>0.94718000000000002</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <f t="shared" si="1"/>
         <v>82</v>
@@ -1737,11 +1485,8 @@
       <c r="C84" s="5">
         <v>5.9909999999999998E-2</v>
       </c>
-      <c r="D84" s="5">
-        <v>0.94008999999999998</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <f t="shared" si="1"/>
         <v>83</v>
@@ -1752,11 +1497,8 @@
       <c r="C85" s="6">
         <v>6.6750000000000004E-2</v>
       </c>
-      <c r="D85" s="6">
-        <v>0.93325000000000002</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <f t="shared" si="1"/>
         <v>84</v>
@@ -1767,11 +1509,8 @@
       <c r="C86" s="5">
         <v>7.5910000000000005E-2</v>
       </c>
-      <c r="D86" s="5">
-        <v>0.92408999999999997</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <f t="shared" si="1"/>
         <v>85</v>
@@ -1782,20 +1521,17 @@
       <c r="C87" s="6">
         <v>1</v>
       </c>
-      <c r="D87" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B88" s="3"/>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B89" s="4"/>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B90" s="3"/>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B91" s="4"/>
     </row>
   </sheetData>
@@ -1805,10 +1541,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D97DE9E7-BC39-4CAD-95C8-103DBACD399C}">
-  <dimension ref="A1:D92"/>
+  <dimension ref="A1:C92"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1817,7 +1553,7 @@
     <col min="2" max="2" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1827,11 +1563,8 @@
       <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="9">
         <v>0</v>
       </c>
@@ -1841,11 +1574,8 @@
       <c r="C2" s="10">
         <v>3.3899999999999998E-3</v>
       </c>
-      <c r="D2" s="10">
-        <v>0.99661</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="9">
         <f>A2+1</f>
         <v>1</v>
@@ -1856,11 +1586,8 @@
       <c r="C3" s="11">
         <v>2.7999999999999998E-4</v>
       </c>
-      <c r="D3" s="11">
-        <v>0.99972000000000005</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
         <f t="shared" ref="A4:A67" si="0">A3+1</f>
         <v>2</v>
@@ -1871,11 +1598,8 @@
       <c r="C4" s="10">
         <v>1.8000000000000001E-4</v>
       </c>
-      <c r="D4" s="10">
-        <v>0.99982000000000004</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1886,11 +1610,8 @@
       <c r="C5" s="11">
         <v>1E-4</v>
       </c>
-      <c r="D5" s="11">
-        <v>0.99990000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1901,11 +1622,8 @@
       <c r="C6" s="10">
         <v>6.9999999999999994E-5</v>
       </c>
-      <c r="D6" s="10">
-        <v>0.99992999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1916,11 +1634,8 @@
       <c r="C7" s="11">
         <v>6.9999999999999994E-5</v>
       </c>
-      <c r="D7" s="11">
-        <v>0.99992999999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="9">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1931,11 +1646,8 @@
       <c r="C8" s="10">
         <v>6.9999999999999994E-5</v>
       </c>
-      <c r="D8" s="10">
-        <v>0.99992999999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1946,11 +1658,8 @@
       <c r="C9" s="11">
         <v>6.9999999999999994E-5</v>
       </c>
-      <c r="D9" s="11">
-        <v>0.99992999999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1961,11 +1670,8 @@
       <c r="C10" s="10">
         <v>8.0000000000000007E-5</v>
       </c>
-      <c r="D10" s="10">
-        <v>0.99992000000000003</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1976,11 +1682,8 @@
       <c r="C11" s="11">
         <v>6.9999999999999994E-5</v>
       </c>
-      <c r="D11" s="11">
-        <v>0.99992999999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1991,11 +1694,8 @@
       <c r="C12" s="10">
         <v>6.9999999999999994E-5</v>
       </c>
-      <c r="D12" s="10">
-        <v>0.99992999999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="9">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -2006,11 +1706,8 @@
       <c r="C13" s="11">
         <v>6.9999999999999994E-5</v>
       </c>
-      <c r="D13" s="11">
-        <v>0.99992999999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -2021,11 +1718,8 @@
       <c r="C14" s="10">
         <v>6.0000000000000002E-5</v>
       </c>
-      <c r="D14" s="10">
-        <v>0.99994000000000005</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="9">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -2036,11 +1730,8 @@
       <c r="C15" s="11">
         <v>9.0000000000000006E-5</v>
       </c>
-      <c r="D15" s="11">
-        <v>0.99990999999999997</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="9">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -2051,11 +1742,8 @@
       <c r="C16" s="10">
         <v>8.0000000000000007E-5</v>
       </c>
-      <c r="D16" s="10">
-        <v>0.99992000000000003</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="9">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -2066,11 +1754,8 @@
       <c r="C17" s="11">
         <v>1.2E-4</v>
       </c>
-      <c r="D17" s="11">
-        <v>0.99987999999999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="9">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -2081,11 +1766,8 @@
       <c r="C18" s="10">
         <v>1.2E-4</v>
       </c>
-      <c r="D18" s="10">
-        <v>0.99987999999999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="9">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -2096,11 +1778,8 @@
       <c r="C19" s="11">
         <v>1.4999999999999999E-4</v>
       </c>
-      <c r="D19" s="11">
-        <v>0.99985000000000002</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="9">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -2111,11 +1790,8 @@
       <c r="C20" s="10">
         <v>1.8000000000000001E-4</v>
       </c>
-      <c r="D20" s="10">
-        <v>0.99982000000000004</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="9">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -2126,11 +1802,8 @@
       <c r="C21" s="11">
         <v>1.7000000000000001E-4</v>
       </c>
-      <c r="D21" s="11">
-        <v>0.99983</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="9">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -2141,11 +1814,8 @@
       <c r="C22" s="10">
         <v>2.2000000000000001E-4</v>
       </c>
-      <c r="D22" s="10">
-        <v>0.99978</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="9">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -2156,11 +1826,8 @@
       <c r="C23" s="11">
         <v>1.8000000000000001E-4</v>
       </c>
-      <c r="D23" s="11">
-        <v>0.99982000000000004</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="9">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -2171,11 +1838,8 @@
       <c r="C24" s="10">
         <v>1.8000000000000001E-4</v>
       </c>
-      <c r="D24" s="10">
-        <v>0.99982000000000004</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="9">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -2186,11 +1850,8 @@
       <c r="C25" s="11">
         <v>1.9000000000000001E-4</v>
       </c>
-      <c r="D25" s="11">
-        <v>0.99980999999999998</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="9">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -2201,11 +1862,8 @@
       <c r="C26" s="10">
         <v>2.1000000000000001E-4</v>
       </c>
-      <c r="D26" s="10">
-        <v>0.99978999999999996</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="9">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -2216,11 +1874,8 @@
       <c r="C27" s="11">
         <v>2.3000000000000001E-4</v>
       </c>
-      <c r="D27" s="11">
-        <v>0.99977000000000005</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="9">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -2231,11 +1886,8 @@
       <c r="C28" s="10">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="D28" s="10">
-        <v>0.99970000000000003</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="9">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -2246,11 +1898,8 @@
       <c r="C29" s="11">
         <v>2.7E-4</v>
       </c>
-      <c r="D29" s="11">
-        <v>0.99973000000000001</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="9">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -2261,11 +1910,8 @@
       <c r="C30" s="10">
         <v>2.7999999999999998E-4</v>
       </c>
-      <c r="D30" s="10">
-        <v>0.99972000000000005</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="9">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -2276,11 +1922,8 @@
       <c r="C31" s="11">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="D31" s="11">
-        <v>0.99970000000000003</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="9">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -2291,11 +1934,8 @@
       <c r="C32" s="10">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="D32" s="10">
-        <v>0.99970000000000003</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="9">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -2306,11 +1946,8 @@
       <c r="C33" s="11">
         <v>3.1E-4</v>
       </c>
-      <c r="D33" s="11">
-        <v>0.99968999999999997</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="9">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -2321,11 +1958,8 @@
       <c r="C34" s="10">
         <v>3.5E-4</v>
       </c>
-      <c r="D34" s="10">
-        <v>0.99965000000000004</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="9">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -2336,11 +1970,8 @@
       <c r="C35" s="11">
         <v>3.8999999999999999E-4</v>
       </c>
-      <c r="D35" s="11">
-        <v>0.99961</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="9">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -2351,11 +1982,8 @@
       <c r="C36" s="10">
         <v>3.8000000000000002E-4</v>
       </c>
-      <c r="D36" s="10">
-        <v>0.99961999999999995</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="9">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -2366,11 +1994,8 @@
       <c r="C37" s="11">
         <v>4.4999999999999999E-4</v>
       </c>
-      <c r="D37" s="11">
-        <v>0.99955000000000005</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="9">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -2381,11 +2006,8 @@
       <c r="C38" s="10">
         <v>5.2999999999999998E-4</v>
       </c>
-      <c r="D38" s="10">
-        <v>0.99946999999999997</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="9">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -2396,11 +2018,8 @@
       <c r="C39" s="11">
         <v>6.2E-4</v>
       </c>
-      <c r="D39" s="11">
-        <v>0.99938000000000005</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="9">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -2411,11 +2030,8 @@
       <c r="C40" s="10">
         <v>6.4000000000000005E-4</v>
       </c>
-      <c r="D40" s="10">
-        <v>0.99936000000000003</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="9">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -2426,11 +2042,8 @@
       <c r="C41" s="11">
         <v>7.2999999999999996E-4</v>
       </c>
-      <c r="D41" s="11">
-        <v>0.99926999999999999</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="9">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -2441,11 +2054,8 @@
       <c r="C42" s="10">
         <v>7.2999999999999996E-4</v>
       </c>
-      <c r="D42" s="10">
-        <v>0.99926999999999999</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="9">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -2456,11 +2066,8 @@
       <c r="C43" s="11">
         <v>9.3999999999999997E-4</v>
       </c>
-      <c r="D43" s="11">
-        <v>0.99905999999999995</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="9">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -2471,11 +2078,8 @@
       <c r="C44" s="10">
         <v>8.8000000000000003E-4</v>
       </c>
-      <c r="D44" s="10">
-        <v>0.99912000000000001</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="9">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -2486,11 +2090,8 @@
       <c r="C45" s="11">
         <v>1.1000000000000001E-3</v>
       </c>
-      <c r="D45" s="11">
-        <v>0.99890000000000001</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="9">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -2501,11 +2102,8 @@
       <c r="C46" s="10">
         <v>1.2199999999999999E-3</v>
       </c>
-      <c r="D46" s="10">
-        <v>0.99878</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="9">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -2516,11 +2114,8 @@
       <c r="C47" s="11">
         <v>1.32E-3</v>
       </c>
-      <c r="D47" s="11">
-        <v>0.99868000000000001</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="9">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -2531,11 +2126,8 @@
       <c r="C48" s="10">
         <v>1.41E-3</v>
       </c>
-      <c r="D48" s="10">
-        <v>0.99858999999999998</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="9">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -2546,11 +2138,8 @@
       <c r="C49" s="11">
         <v>1.57E-3</v>
       </c>
-      <c r="D49" s="11">
-        <v>0.99843000000000004</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="9">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -2561,11 +2150,8 @@
       <c r="C50" s="10">
         <v>1.81E-3</v>
       </c>
-      <c r="D50" s="10">
-        <v>0.99819000000000002</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="9">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -2576,11 +2162,8 @@
       <c r="C51" s="11">
         <v>1.8600000000000001E-3</v>
       </c>
-      <c r="D51" s="11">
-        <v>0.99814000000000003</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="9">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -2591,11 +2174,8 @@
       <c r="C52" s="10">
         <v>2.1299999999999999E-3</v>
       </c>
-      <c r="D52" s="10">
-        <v>0.99787000000000003</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="9">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -2606,11 +2186,8 @@
       <c r="C53" s="11">
         <v>2.2300000000000002E-3</v>
       </c>
-      <c r="D53" s="11">
-        <v>0.99777000000000005</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="9">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -2621,11 +2198,8 @@
       <c r="C54" s="10">
         <v>2.49E-3</v>
       </c>
-      <c r="D54" s="10">
-        <v>0.99751000000000001</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="9">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -2636,11 +2210,8 @@
       <c r="C55" s="11">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="D55" s="11">
-        <v>0.99750000000000005</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="9">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -2651,11 +2222,8 @@
       <c r="C56" s="10">
         <v>2.96E-3</v>
       </c>
-      <c r="D56" s="10">
-        <v>0.99704000000000004</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="9">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -2666,11 +2234,8 @@
       <c r="C57" s="11">
         <v>3.13E-3</v>
       </c>
-      <c r="D57" s="11">
-        <v>0.99687000000000003</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="9">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -2681,11 +2246,8 @@
       <c r="C58" s="10">
         <v>3.2599999999999999E-3</v>
       </c>
-      <c r="D58" s="10">
-        <v>0.99673999999999996</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="9">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -2696,11 +2258,8 @@
       <c r="C59" s="11">
         <v>3.49E-3</v>
       </c>
-      <c r="D59" s="11">
-        <v>0.99651000000000001</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="9">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -2711,11 +2270,8 @@
       <c r="C60" s="10">
         <v>3.7499999999999999E-3</v>
       </c>
-      <c r="D60" s="10">
-        <v>0.99624999999999997</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="9">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -2726,11 +2282,8 @@
       <c r="C61" s="11">
         <v>4.1200000000000004E-3</v>
       </c>
-      <c r="D61" s="11">
-        <v>0.99587999999999999</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="9">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -2741,11 +2294,8 @@
       <c r="C62" s="10">
         <v>4.2100000000000002E-3</v>
       </c>
-      <c r="D62" s="10">
-        <v>0.99578999999999995</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="9">
         <f t="shared" si="0"/>
         <v>61</v>
@@ -2756,11 +2306,8 @@
       <c r="C63" s="11">
         <v>4.6899999999999997E-3</v>
       </c>
-      <c r="D63" s="11">
-        <v>0.99531000000000003</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="9">
         <f t="shared" si="0"/>
         <v>62</v>
@@ -2771,11 +2318,8 @@
       <c r="C64" s="10">
         <v>4.9100000000000003E-3</v>
       </c>
-      <c r="D64" s="10">
-        <v>0.99509000000000003</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="9">
         <f t="shared" si="0"/>
         <v>63</v>
@@ -2786,11 +2330,8 @@
       <c r="C65" s="11">
         <v>5.2399999999999999E-3</v>
       </c>
-      <c r="D65" s="11">
-        <v>0.99475999999999998</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="9">
         <f t="shared" si="0"/>
         <v>64</v>
@@ -2801,11 +2342,8 @@
       <c r="C66" s="10">
         <v>5.6299999999999996E-3</v>
       </c>
-      <c r="D66" s="10">
-        <v>0.99436999999999998</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="9">
         <f t="shared" si="0"/>
         <v>65</v>
@@ -2816,11 +2354,8 @@
       <c r="C67" s="11">
         <v>5.9899999999999997E-3</v>
       </c>
-      <c r="D67" s="11">
-        <v>0.99400999999999995</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="9">
         <f t="shared" ref="A68:A87" si="1">A67+1</f>
         <v>66</v>
@@ -2831,11 +2366,8 @@
       <c r="C68" s="10">
         <v>6.2399999999999999E-3</v>
       </c>
-      <c r="D68" s="10">
-        <v>0.99375999999999998</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="9">
         <f t="shared" si="1"/>
         <v>67</v>
@@ -2846,11 +2378,8 @@
       <c r="C69" s="11">
         <v>6.5599999999999999E-3</v>
       </c>
-      <c r="D69" s="11">
-        <v>0.99343999999999999</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="9">
         <f t="shared" si="1"/>
         <v>68</v>
@@ -2861,11 +2390,8 @@
       <c r="C70" s="10">
         <v>7.7299999999999999E-3</v>
       </c>
-      <c r="D70" s="10">
-        <v>0.99226999999999999</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="9">
         <f t="shared" si="1"/>
         <v>69</v>
@@ -2876,11 +2402,8 @@
       <c r="C71" s="11">
         <v>7.7999999999999996E-3</v>
       </c>
-      <c r="D71" s="11">
-        <v>0.99219999999999997</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="9">
         <f t="shared" si="1"/>
         <v>70</v>
@@ -2891,11 +2414,8 @@
       <c r="C72" s="10">
         <v>8.7899999999999992E-3</v>
       </c>
-      <c r="D72" s="10">
-        <v>0.99121000000000004</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="9">
         <f t="shared" si="1"/>
         <v>71</v>
@@ -2906,11 +2426,8 @@
       <c r="C73" s="11">
         <v>9.4900000000000002E-3</v>
       </c>
-      <c r="D73" s="11">
-        <v>0.99051</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="9">
         <f t="shared" si="1"/>
         <v>72</v>
@@ -2921,11 +2438,8 @@
       <c r="C74" s="10">
         <v>1.0699999999999999E-2</v>
       </c>
-      <c r="D74" s="10">
-        <v>0.98929999999999996</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="9">
         <f t="shared" si="1"/>
         <v>73</v>
@@ -2936,11 +2450,8 @@
       <c r="C75" s="11">
         <v>1.095E-2</v>
       </c>
-      <c r="D75" s="11">
-        <v>0.98904999999999998</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="9">
         <f t="shared" si="1"/>
         <v>74</v>
@@ -2951,11 +2462,8 @@
       <c r="C76" s="10">
         <v>1.291E-2</v>
       </c>
-      <c r="D76" s="10">
-        <v>0.98709000000000002</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="9">
         <f t="shared" si="1"/>
         <v>75</v>
@@ -2966,11 +2474,8 @@
       <c r="C77" s="11">
         <v>1.3979999999999999E-2</v>
       </c>
-      <c r="D77" s="11">
-        <v>0.98602000000000001</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="9">
         <f t="shared" si="1"/>
         <v>76</v>
@@ -2981,11 +2486,8 @@
       <c r="C78" s="10">
         <v>1.644E-2</v>
       </c>
-      <c r="D78" s="10">
-        <v>0.98355999999999999</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="9">
         <f t="shared" si="1"/>
         <v>77</v>
@@ -2996,11 +2498,8 @@
       <c r="C79" s="11">
         <v>1.7739999999999999E-2</v>
       </c>
-      <c r="D79" s="11">
-        <v>0.98226000000000002</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="9">
         <f t="shared" si="1"/>
         <v>78</v>
@@ -3011,11 +2510,8 @@
       <c r="C80" s="10">
         <v>1.9970000000000002E-2</v>
       </c>
-      <c r="D80" s="10">
-        <v>0.98002999999999996</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="9">
         <f t="shared" si="1"/>
         <v>79</v>
@@ -3026,11 +2522,8 @@
       <c r="C81" s="11">
         <v>2.29E-2</v>
       </c>
-      <c r="D81" s="11">
-        <v>0.97709999999999997</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="9">
         <f t="shared" si="1"/>
         <v>80</v>
@@ -3041,11 +2534,8 @@
       <c r="C82" s="10">
         <v>2.6409999999999999E-2</v>
       </c>
-      <c r="D82" s="10">
-        <v>0.97358999999999996</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="9">
         <f t="shared" si="1"/>
         <v>81</v>
@@ -3056,11 +2546,8 @@
       <c r="C83" s="11">
         <v>3.0669999999999999E-2</v>
       </c>
-      <c r="D83" s="11">
-        <v>0.96933000000000002</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="9">
         <f t="shared" si="1"/>
         <v>82</v>
@@ -3071,11 +2558,8 @@
       <c r="C84" s="10">
         <v>3.4689999999999999E-2</v>
       </c>
-      <c r="D84" s="10">
-        <v>0.96531</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="9">
         <f t="shared" si="1"/>
         <v>83</v>
@@ -3086,11 +2570,8 @@
       <c r="C85" s="11">
         <v>4.1009999999999998E-2</v>
       </c>
-      <c r="D85" s="11">
-        <v>0.95899000000000001</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="9">
         <f t="shared" si="1"/>
         <v>84</v>
@@ -3101,11 +2582,8 @@
       <c r="C86" s="10">
         <v>4.7010000000000003E-2</v>
       </c>
-      <c r="D86" s="10">
-        <v>0.95299</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="9">
         <f t="shared" si="1"/>
         <v>85</v>
@@ -3116,14 +2594,11 @@
       <c r="C87" s="11">
         <v>1</v>
       </c>
-      <c r="D87" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="12"/>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="12"/>
     </row>
   </sheetData>
